--- a/systemconstruction/systemcontruction.xlsx
+++ b/systemconstruction/systemcontruction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\systemconstruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FE7170-D40C-48DE-B1AC-35341707536F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88458DF-B04A-454F-95CE-A860E1E68BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同一异常处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一异常处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -440,10 +440,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>

--- a/systemconstruction/systemcontruction.xlsx
+++ b/systemconstruction/systemcontruction.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\systemconstruction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88458DF-B04A-454F-95CE-A860E1E68BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB1352E-BBDF-481C-A4E6-8E417DD16653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="系统建设" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,22 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具类抽象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体实施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,7 +43,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统一异常处理</t>
+    <t>项目阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预生产阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目背景/需求范围确定/人员准备/沟通模型建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.代码结构设计
+2.编码规范制定
+3.代码版本管理方案
+4.系统功能设计
+5.工具类抽象
+6.统一异常处理
+7.日志处理
+8.系统设计计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.需求版本划分 
+2.需求迭代
+3.需求评审
+4.需求交付计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发计划
+2.代码评审(评审组建立、评审计划建立)
+3.功能自测
+4.功能交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试案例编写（SIT/UAT)
+2.测试计划建立（SIT/UAT)
+3.缺陷处理流程/缺陷处理规范/缺陷发布规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试案例
+2.测试计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.人员清单
+2.沟通模型清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.清库脚本准备
+2.初始化脚本准备(用户权限、参数配置、号码初始值、工作流配置导入、依赖服务url配置等)
+3.生产演练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1..开发运维分组
+2.运维流程建立
+3.运维脚本规范(执行脚本、结果校验脚本、回退脚本)
+4.需求版本建立
+5.BugFix版本方案建立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,13 +212,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,81 +505,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
